--- a/Guia de Rotas.xlsx
+++ b/Guia de Rotas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Desktop\ESTG\IS\Projeto-IS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9202A8-85C7-471D-9190-87AB9866F62D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64A1986-0C42-4358-AA47-AA0C3D3BAF2A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{59E30222-E4CD-41B8-8CBB-DA881D488E0D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Integracao de Sistemas</t>
   </si>
@@ -76,13 +76,46 @@
   </si>
   <si>
     <t>10. Instant occupancy rate in a specific park.</t>
+  </si>
+  <si>
+    <t>api/parks</t>
+  </si>
+  <si>
+    <t>Exemplo</t>
+  </si>
+  <si>
+    <t>api/spots/Campus_2_A_Park1/date/2018-12-12T16:11:14</t>
+  </si>
+  <si>
+    <t>api/parks/Campus_2_A_Park1</t>
+  </si>
+  <si>
+    <t>api/spots/park/Campus_2_A_Park1</t>
+  </si>
+  <si>
+    <t>api/spots/needReplace</t>
+  </si>
+  <si>
+    <t>api/spots/park/Campus_2_A_Park1/needReplace</t>
+  </si>
+  <si>
+    <t>api/spots/park/Campus_2_A_Park1/occupancyRate</t>
+  </si>
+  <si>
+    <t>api/parks/Campus_2_A_Park1/startdate/2018-12-12T16:00:00/finaldate/2018-12-12T17:00:00</t>
+  </si>
+  <si>
+    <t>api/parks/free/Campus_2_A_Park1/date/2018-12-12T16:11:14</t>
+  </si>
+  <si>
+    <t>api/spots/A-1/2018-12-12T16:11:14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,23 +145,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -158,16 +183,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -208,46 +233,218 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Cálculo" xfId="4" builtinId="22"/>
-    <cellStyle name="Cor5" xfId="5" builtinId="45"/>
+    <cellStyle name="Cor5" xfId="4" builtinId="45"/>
     <cellStyle name="Correto" xfId="1" builtinId="26"/>
     <cellStyle name="Entrada" xfId="3" builtinId="20"/>
     <cellStyle name="Neutro" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Nota" xfId="5" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -559,266 +756,437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBC8C99-0E82-4A78-99CC-BB6B7DDAF8B4}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:L13"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J1" s="1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="L2" s="2" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="N9" s="4" t="s">
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H16" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="S9" s="4" t="s">
+      <c r="I16" s="15"/>
+      <c r="K16" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="T9" s="5"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="K17" s="7">
+        <v>1</v>
+      </c>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H18" s="7">
         <v>5</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="N10" s="7">
-        <v>5</v>
-      </c>
-      <c r="O10" s="8"/>
-      <c r="S10" s="7">
-        <v>1</v>
-      </c>
-      <c r="T10" s="8"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="I18" s="8"/>
+      <c r="K18" s="7">
+        <v>3</v>
+      </c>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H19" s="7">
+        <v>7</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="K19" s="7">
+        <v>4</v>
+      </c>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H20" s="7">
+        <v>8</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="K20" s="7">
         <v>6</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="N11" s="7">
-        <v>7</v>
-      </c>
-      <c r="O11" s="8"/>
-      <c r="S11" s="7">
-        <v>6</v>
-      </c>
-      <c r="T11" s="8"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="N12" s="7">
-        <v>8</v>
-      </c>
-      <c r="O12" s="8"/>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="N13" s="7">
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H21" s="7">
         <v>9</v>
       </c>
-      <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="N14" s="7">
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H22" s="7">
         <v>10</v>
       </c>
-      <c r="O14" s="8"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="I22" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="S9:T9"/>
+  <mergeCells count="36">
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="M5:U5"/>
+    <mergeCell ref="M7:U7"/>
+    <mergeCell ref="M8:U8"/>
+    <mergeCell ref="M9:U9"/>
+    <mergeCell ref="M10:U10"/>
+    <mergeCell ref="M11:U11"/>
+    <mergeCell ref="M12:U12"/>
+    <mergeCell ref="M13:U13"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A8:L8"/>
     <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="L2:M2"/>
     <mergeCell ref="A10:L10"/>
     <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="M4:U4"/>
+    <mergeCell ref="M14:U14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
